--- a/Тест/2019_05_28/Test_1905-14,21,28_Тренажер.xlsx
+++ b/Тест/2019_05_28/Test_1905-14,21,28_Тренажер.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00\TOWER\Warehouse\OKO-02_Test\Тест\2019_05_28\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="22995" windowHeight="9150" activeTab="18"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="22995" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Итог" sheetId="17" r:id="rId1"/>
@@ -28,7 +33,7 @@
     <sheet name="c" sheetId="22" r:id="rId19"/>
     <sheet name="time" sheetId="9" r:id="rId20"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -38,7 +43,7 @@
     <author>Marina</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="83">
   <si>
     <t>Овчинникова Анастасия Владимировна</t>
   </si>
@@ -307,12 +312,21 @@
   </si>
   <si>
     <t>Янченко Максим</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
   </numFmts>
@@ -608,7 +622,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -643,7 +657,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -852,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,13 +1474,33 @@
       <c r="H16" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
+      <c r="I16" s="27">
+        <f>'13'!L2</f>
+        <v>36</v>
+      </c>
+      <c r="J16" s="27">
+        <f>'13'!L3</f>
+        <v>279</v>
+      </c>
+      <c r="K16" s="27">
+        <f>'13'!L4</f>
+        <v>414</v>
+      </c>
+      <c r="L16" s="27">
+        <f>'13'!L5</f>
+        <v>96</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="27">
+        <f>'13'!L7</f>
+        <v>146</v>
+      </c>
+      <c r="O16" s="27">
+        <f>'13'!N11</f>
+        <v>2</v>
+      </c>
       <c r="P16" s="24"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
@@ -1481,77 +1515,161 @@
       <c r="H17" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="K17" s="24"/>
-      <c r="O17" s="24"/>
+      <c r="I17" s="27">
+        <f>'14'!L2</f>
+        <v>98</v>
+      </c>
+      <c r="J17" s="27">
+        <f>'14'!L3</f>
+        <v>114</v>
+      </c>
+      <c r="K17" s="27">
+        <f>'14'!L4</f>
+        <v>417</v>
+      </c>
+      <c r="L17" s="27">
+        <f>'14'!L5</f>
+        <v>81</v>
+      </c>
+      <c r="M17" s="27">
+        <f>'14'!L6</f>
+        <v>51</v>
+      </c>
+      <c r="N17" s="27">
+        <f>'14'!L7</f>
+        <v>36</v>
+      </c>
+      <c r="O17" s="27">
+        <f>'14'!N11</f>
+        <v>3</v>
+      </c>
       <c r="P17" s="24"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="26">
-        <v>15</v>
+      <c r="B18" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="24"/>
+      <c r="H18" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="27">
+        <f>a!L2</f>
+        <v>101</v>
+      </c>
+      <c r="J18" s="27">
+        <f>a!L3</f>
+        <v>98</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L18" s="27">
+        <f>a!L5</f>
+        <v>50</v>
+      </c>
+      <c r="M18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N18" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="O18" s="27">
+        <f>a!N11</f>
+        <v>3</v>
+      </c>
       <c r="P18" s="24"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
-        <v>16</v>
+      <c r="B19" s="25" t="s">
+        <v>81</v>
       </c>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="24"/>
+      <c r="H19" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="27">
+        <f>b!L2</f>
+        <v>103</v>
+      </c>
+      <c r="J19" s="27">
+        <f>b!L3</f>
+        <v>48</v>
+      </c>
+      <c r="K19" s="27">
+        <f>b!L4</f>
+        <v>414</v>
+      </c>
+      <c r="L19" s="27">
+        <f>b!L5</f>
+        <v>79</v>
+      </c>
+      <c r="M19" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N19" s="27">
+        <f>b!L7</f>
+        <v>110</v>
+      </c>
+      <c r="O19" s="27">
+        <f>b!N11</f>
+        <v>1</v>
+      </c>
       <c r="P19" s="24"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
-        <v>17</v>
+      <c r="B20" s="25" t="s">
+        <v>82</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
-      <c r="H20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="24"/>
+      <c r="H20" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="27">
+        <f>'c'!L2</f>
+        <v>84</v>
+      </c>
+      <c r="J20" s="27">
+        <f>'c'!L3</f>
+        <v>125</v>
+      </c>
+      <c r="K20" s="27">
+        <f>'c'!L4</f>
+        <v>361</v>
+      </c>
+      <c r="L20" s="27">
+        <f>'c'!L5</f>
+        <v>102</v>
+      </c>
+      <c r="M20" s="27">
+        <f>'c'!L6</f>
+        <v>16</v>
+      </c>
+      <c r="N20" s="27">
+        <f>'c'!L7</f>
+        <v>297</v>
+      </c>
+      <c r="O20" s="27">
+        <f>'c'!N11</f>
+        <v>3</v>
+      </c>
       <c r="P20" s="24"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
-        <v>18</v>
+      <c r="B21" s="26">
+        <v>15</v>
       </c>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
@@ -1563,8 +1681,8 @@
       </c>
       <c r="I21" s="30"/>
       <c r="J21" s="30"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="31"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
       <c r="M21" s="30"/>
       <c r="N21" s="30"/>
       <c r="O21" s="24"/>
@@ -1572,7 +1690,7 @@
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="24">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
@@ -1593,7 +1711,7 @@
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="24">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
@@ -1614,7 +1732,7 @@
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="24">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
@@ -1626,8 +1744,8 @@
       </c>
       <c r="I24" s="30"/>
       <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="31"/>
       <c r="M24" s="30"/>
       <c r="N24" s="30"/>
       <c r="O24" s="24"/>
@@ -1635,7 +1753,7 @@
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
@@ -1656,7 +1774,7 @@
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="24">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
@@ -1666,7 +1784,7 @@
       <c r="H26" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I26" s="32"/>
+      <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -1677,7 +1795,7 @@
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="24">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
@@ -1698,7 +1816,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="24">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -1719,7 +1837,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="24">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -1729,18 +1847,18 @@
       <c r="H29" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="32"/>
       <c r="J29" s="30"/>
       <c r="K29" s="30"/>
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
-      <c r="N29" s="32"/>
+      <c r="N29" s="30"/>
       <c r="O29" s="24"/>
       <c r="P29" s="24"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="24">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
@@ -1750,12 +1868,18 @@
       <c r="H30" s="26" t="s">
         <v>68</v>
       </c>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
       <c r="O30" s="24"/>
       <c r="P30" s="24"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="24">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
@@ -1765,32 +1889,89 @@
       <c r="H31" s="26" t="s">
         <v>68</v>
       </c>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
       <c r="O31" s="24"/>
       <c r="P31" s="24"/>
     </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I34" s="28" t="s">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="24">
+        <v>26</v>
+      </c>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B33" s="24">
+        <v>27</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B34" s="24">
+        <v>28</v>
+      </c>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I37" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K37" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I36" s="29">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="I39" s="29">
         <v>9</v>
       </c>
-      <c r="K36" t="s">
+      <c r="K39" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K37" t="s">
+    <row r="40" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K40" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="K38" t="s">
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="K41" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3108,7 +3289,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,7 +3615,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3645,16 +3826,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <f>B6-B1</f>
-        <v>-4.6296296296296294E-5</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="G6">
         <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.6296296296296294E-5</v>
       </c>
       <c r="I6" s="2">
         <f>time!F7</f>
@@ -3664,18 +3838,7 @@
         <f>time!G7</f>
         <v>9.1203703703703707E-3</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2939814814814812E-3</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="1"/>
-        <v>803</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -3757,7 +3920,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4083,7 +4246,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4216,16 +4379,9 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
-        <f>B4-B1</f>
-        <v>-4.6296296296296294E-5</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="G4">
         <v>3</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.6296296296296294E-5</v>
       </c>
       <c r="I4" s="2">
         <f>time!F5</f>
@@ -4235,18 +4391,7 @@
         <f>time!G5</f>
         <v>7.0775462962962962E-3</v>
       </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.2581018518518515E-3</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="1"/>
-        <v>713</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="L4" s="10"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -4291,16 +4436,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <f>B6-B1</f>
-        <v>-4.6296296296296294E-5</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="G6">
         <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.6296296296296294E-5</v>
       </c>
       <c r="I6" s="2">
         <f>time!F7</f>
@@ -4310,33 +4448,15 @@
         <f>time!G7</f>
         <v>9.1203703703703707E-3</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2939814814814812E-3</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="1"/>
-        <v>803</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
-        <f>B7-B1</f>
-        <v>-4.6296296296296294E-5</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="G7">
         <v>6</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.6296296296296294E-5</v>
       </c>
       <c r="I7" s="2">
         <f>time!F8</f>
@@ -4346,18 +4466,7 @@
         <f>time!G8</f>
         <v>9.7280092592592592E-3</v>
       </c>
-      <c r="K7" s="2">
-        <f t="shared" si="0"/>
-        <v>9.9305555555555536E-3</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="1"/>
-        <v>858</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="L7" s="10"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N10" t="s">
@@ -4400,7 +4509,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,16 +4720,9 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
-        <f>B6-B1</f>
-        <v>-4.6296296296296294E-5</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="G6">
         <v>5</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="2"/>
-        <v>-4.6296296296296294E-5</v>
       </c>
       <c r="I6" s="2">
         <f>time!F7</f>
@@ -4630,18 +4732,7 @@
         <f>time!G7</f>
         <v>9.1203703703703707E-3</v>
       </c>
-      <c r="K6" s="2">
-        <f t="shared" si="0"/>
-        <v>9.2939814814814812E-3</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="1"/>
-        <v>803</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -4722,8 +4813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,7 +5327,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7199,7 +7290,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
